--- a/rsme_results.xlsx
+++ b/rsme_results.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>,SUMXMY2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x31 ⇒</t>
   </si>
   <si>
@@ -129,6 +125,10 @@
   </si>
   <si>
     <t>0x34 ⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check-score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,20 +190,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -549,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,28 +586,28 @@
         <v>0.2586</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" ref="G8:G11" si="0">IF(OR(B8&gt;B$2,C8&gt;C$2,D8&gt;D$2,E8&gt;E$2),"x",AVERAGE(B$2-B8,C$2-C8,D$2-D8,E$2-E8))</f>
+        <f t="shared" ref="G8" si="0">IF(OR(B8&gt;B$2,C8&gt;C$2,D8&gt;D$2,E8&gt;E$2),"x",AVERAGE(B$2-B8,C$2-C8,D$2-D8,E$2-E8))</f>
         <v>x</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.33090000000000003</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.23250000000000001</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6">
         <f>IF(OR(B9&gt;B$2,C9&gt;C$2,D9&gt;D$2,E9&gt;E$2),"x",AVERAGE(B$2-B9,C$2-C9,D$2-D9,E$2-E9))</f>
         <v>4.4549999999999992E-2</v>
       </c>
@@ -827,7 +839,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>7.46E-2</v>
@@ -869,7 +881,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>8.1000000000000003E-2</v>
@@ -890,7 +902,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>8.2400000000000001E-2</v>
@@ -937,7 +949,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>7.3700000000000002E-2</v>
@@ -958,7 +970,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>6.0999999999999999E-2</v>
@@ -979,7 +991,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>6.1600000000000002E-2</v>
@@ -1001,7 +1013,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>6.3200000000000006E-2</v>
@@ -1043,7 +1055,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>6.83E-2</v>
@@ -1090,7 +1102,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
         <v>7.46E-2</v>
@@ -1105,13 +1117,13 @@
         <v>0.2586</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" ref="G37:G38" si="7">IF(OR(B37&gt;B$2,C37&gt;C$2,D37&gt;D$2,E37&gt;E$2),"x",AVERAGE(B$2-B37,C$2-C37,D$2-D37,E$2-E37))</f>
+        <f t="shared" ref="G37" si="7">IF(OR(B37&gt;B$2,C37&gt;C$2,D37&gt;D$2,E37&gt;E$2),"x",AVERAGE(B$2-B37,C$2-C37,D$2-D37,E$2-E37))</f>
         <v>2.9824999999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <v>6.3600000000000004E-2</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="3">
         <v>6.1600000000000002E-2</v>
@@ -1154,7 +1166,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1">
         <v>6.0999999999999999E-2</v>
@@ -1175,7 +1187,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>6.0699999999999997E-2</v>
